--- a/clase4/prueba1.xlsx
+++ b/clase4/prueba1.xlsx
@@ -24,7 +24,7 @@
     <t xml:space="preserve">Frecuencia relativa</t>
   </si>
   <si>
-    <t xml:space="preserve">Hombre</t>
+    <t xml:space="preserve">Mujeres</t>
   </si>
   <si>
     <t xml:space="preserve">Cuenta propia</t>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">TFSR</t>
   </si>
   <si>
-    <t xml:space="preserve">Mujer</t>
+    <t xml:space="preserve">Varones</t>
   </si>
   <si>
     <t xml:space="preserve">DESC_JUBILATORIO</t>
@@ -399,7 +399,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>22.8</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="3">
@@ -410,7 +410,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>72.3</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="4">
@@ -421,7 +421,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="5">
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="7">
@@ -454,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>77.5</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="8">
@@ -465,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="9">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +518,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>67.5</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>38.1</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="5">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>61.9</v>
+        <v>67.5</v>
       </c>
     </row>
   </sheetData>

--- a/clase4/prueba1.xlsx
+++ b/clase4/prueba1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -373,12 +373,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -486,12 +486,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
